--- a/SCRAPPING/base.xlsx
+++ b/SCRAPPING/base.xlsx
@@ -480,42 +480,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S/ 2,900</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(USD 750)</t>
-        </is>
-      </c>
+          <t>S/ 2,950</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S/ 1 Mantenimiento</t>
+          <t>S/ 250 Mantenimiento</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jirón Cuzco 1056</t>
+          <t>AV SALAVERRY 20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pando Etapa Iv, San Miguel</t>
+          <t>Jesús María, Lima</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>180 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>180 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4 dorm.</t>
+          <t>3 dorm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -526,7 +522,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hermoso Departamento en El Corazón de San MiguelUbicado en el 4to Piso. Ubicación privilegiada cerca a zonas comerciales, colegios, universidades. Perfecto para familias: Cuenta con 4 dormitorios y 3 baños completos. Adicionalmente cuenta con 1 cuarto de servicio con baño completo. No cuenta con cochera; sin embargo en la misma cuadra se puede alquilar una. No cuenta con Ascensor</t>
+          <t>Alquilo Departamento 120 m2 3 Hab 1 Piso con Balcon Vista a La Calle SalaverryAlquilo amplio departamento excelente ubicacion frente A la universidad pacifico, en la av salaverry cuadra 20 A unas cuadras de real plaza salaverry, colegios, bancos, etc. Departamento cuenta con sala comedor amplia ventilada E iluminada con balcon vista A la calle. cocina con muebles altos Y bajos area de lavanderia. 3 habitaciones amplias todas ingresan camas amplias mas escritorio cuenta con closet, dormitorio principal con jacuzzi. cuarto Y baño de servicio. departamento en 1 piso. mayor informacion llamar giannina huarcaya 9. 6. 6. 3. 5. 9. 4. 2. 4</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -541,40 +537,40 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Dueño directo</t>
+          <t>Contactar</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S/ 2,950</t>
+          <t>S/ 2,600</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>S/ 250 Mantenimiento</t>
+          <t>S/ 10 Mantenimiento</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AV SALAVERRY 20</t>
+          <t>PASAJE CALDERON DE LA BARCA 106</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jesús María, Lima</t>
+          <t>San Miguel, Lima</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -590,7 +586,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Alquilo Departamento 120 m2 3 Hab 1 Piso con Balcon Vista a La Calle SalaverryAlquilo amplio departamento excelente ubicacion frente A la universidad pacifico, en la av salaverry cuadra 20 A unas cuadras de real plaza salaverry, colegios, bancos, etc. Departamento cuenta con sala comedor amplia ventilada E iluminada con balcon vista A la calle. cocina con muebles altos Y bajos area de lavanderia. 3 habitaciones amplias todas ingresan camas amplias mas escritorio cuenta con closet, dormitorio principal con jacuzzi. cuarto Y baño de servicio. departamento en 1 piso. mayor informacion llamar giannina huarcaya 9. 6. 6. 3. 5. 9. 4. 2. 4</t>
+          <t>Amplio Duplex en San Miguel C0ntacto Dora Velasquez 9.9.2.2.6.8.3.6.3Alquilo amplio duplex de 160 M2 en san miguel excelente ubicacion! Cerca A los colegios juan 23, san judas tadeo, ann sullivan - universidades la catolica, upc. A media cuadra de la 15 av la marina entre bolognesi ( ex cueva) Y la av. universitaria, A 2 cuadras de plaza san mniguel. 3er Y 4to piso con escaleras descansadas. un departamento por piso. 3 amplias habitaciones con roperos. 3 baños completos con calentador de agua. sala comedor. cocina. lavanderia Y amplio patio con colgadores de ropas. balcon. 3 ambientes para deposito. Almacen O escritorios. A media cuadra del parque pershing que cuenta con una base de serenazgo. comunicate ya Y alquila este amplio duplex. contacto dora velasquez 9. 9. 2. 2. 6. 8. 3. 6. 3</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -612,58 +608,58 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S/ 2,600</t>
+          <t>S/ 2,900</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(USD 680)</t>
+          <t>(USD 750)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>S/ 120 Mantenimiento</t>
+          <t>S/ 1 Mantenimiento</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Calle Oliva Fidel Escudero, san miguel</t>
+          <t>Jirón Cuzco 1056</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pando, San Miguel</t>
+          <t>Pando Etapa Iv, San Miguel</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>180 m²</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>180 m²</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3 dorm.</t>
+          <t>4 dorm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2 baños</t>
+          <t>3 baños</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Alquiler de Departamento en San Miguel - Calle Oliva Fidel EscuderoVive en el corazón de San Miguel a 1 cuadra del C. C. Plaza San Miguel, Super Mercado Metro, Colegio Claretiano, tiendas, restaurantes, bancos y farmacias. Hermoso departamento amplio, iluminado, impecable, listo para mudarse. Piso 9 - Pen House. - Cocina amoblada – reposteros altos y bajos. - Sala – Comedor. - 3 dormitorios. - Dormitorio Principal con baño incluido. - 02 dormitorios secundarios que comparten un baño completo. - Terraza – bbq. - Espacio techado para deposito. - Área de Lavandería. - Ascensor. claudia raimondi. Ver datos</t>
+          <t>Hermoso Departamento en El Corazón de San MiguelUbicado en el 4to Piso. Ubicación privilegiada cerca a zonas comerciales, colegios, universidades. Perfecto para familias: Cuenta con 4 dormitorios y 3 baños completos. Adicionalmente cuenta con 1 cuarto de servicio con baño completo. No cuenta con cochera; sin embargo en la misma cuadra se puede alquilar una. No cuenta con Ascensor</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Destacado</t>
+          <t>Super destacado</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -673,7 +669,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Contactar</t>
+          <t>Dueño directo</t>
         </is>
       </c>
     </row>
@@ -683,30 +679,34 @@
           <t>S/ 2,600</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(USD 680)</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S/ 1 Mantenimiento</t>
+          <t>S/ 120 Mantenimiento</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Psje. Calderon de la Barca 106</t>
+          <t>Calle Oliva Fidel Escudero, san miguel</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
+          <t>Pando, San Miguel</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>185 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>185 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -716,13 +716,13 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3 baños</t>
+          <t>2 baños</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Tv./ Duplex / 185 m2 / 3er y 4to Piso / 3 Dorm + 2 Depósitos - 9.9.2.8.6.6.8.2.1.**solo clientes directos** **Amplio duplex en Alquiler, ubicado en 3er y 4to piso de una casa y a media cuadra de Bonito Parque - San Miguel** **contacto: 9. 9. 2. 8. 6. 6. 8. 2. 1. ** **185m² distribuidos en: Sala - ComedorÁrea de Cocina, Área de Lavandería, 3 Dormitorios con Closet, 2 Baños Completos + 2 Pequeños cuartos de servicio (o Depositos) + Baño de Servicio + Linda Terraza** **no hay Cochera pero puede estacionarse al rededor del Parque** **costo mensual: 2600 soles** **condición: 2x1** **luz independiente y agua compartida** **Se acepta mascota** **sólo personas con dni** **Muy Centrica Ubicacion: A media Cdra. De Av. La Marina (Alt. De la 15) y a unos pasos de Plaza San Miguel** **solo se responderá A quienes dejen su numero de contacto. Gracias**</t>
+          <t>Alquiler de Departamento en San Miguel - Calle Oliva Fidel EscuderoVive en el corazón de San Miguel a 1 cuadra del C. C. Plaza San Miguel, Super Mercado Metro, Colegio Claretiano, tiendas, restaurantes, bancos y farmacias. Hermoso departamento amplio, iluminado, impecable, listo para mudarse. Piso 9 - Pen House. - Cocina amoblada – reposteros altos y bajos. - Sala – Comedor. - 3 dormitorios. - Dormitorio Principal con baño incluido. - 02 dormitorios secundarios que comparten un baño completo. - Terraza – bbq. - Espacio techado para deposito. - Área de Lavandería. - Ascensor. claudia raimondi. Ver datos</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -744,14 +744,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S/ 2,100</t>
+          <t>S/ 2,600</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S/ 1 Mantenimiento</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AV ARICA 134</t>
+          <t>Psje. Calderon de la Barca 106</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -761,12 +765,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>103 m²</t>
+          <t>185 m²</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>97 m²</t>
+          <t>185 m²</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -776,13 +780,13 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2 baños</t>
+          <t>3 baños</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Alquiler de Departamento en San MiguelContacto: santa cruz buendía yieny kennith. cell: 9*8*6*9*8*7*3*4*6. ¡excelente ubicación! Departamento en alquiler - san miguel ¿Te imaginas generar nuevas experiencias familiares en la intimidad de tu departamento? Si eres de las que aprecian las áreas verdes, parques, ambientes ventilados e iluminados y te encuentras buscando un departamento en una zona céntrica, tranquila y segura … ¡este es el departamento ideal para ti! Estratégicamente ubicado a pocas cuadras de la av. Sucre, Bertolotto Municipalidad San miguel, con vías de acceso, cerca de Centros Comerciales, colegios. Te invito a visitar este acogedor Departamento de 103. 20 m2 en 1er piso. -Distribución de este hermoso departamento: -Cocina amplia con respectivos muebles altos y bajos. -Sala comedor amplia e iluminada. -Baño de visita. - 1 habitación principal completo, closet y vista externa e iluminación natural. - 3 habitaciones secundarias. - 1 baño. - Zona de lavandería. - Ubicado en 1er Piso. -No aceptan mascotas. Este Departamento es ideal para una familia que ama la naturaleza, practica algún deporte porque tiene ideales para hacer ejercicio al aire libre y que valora la seguridad, los 7 días de la semana, no te gusta subir escaleras en un primer piso es ideal para ti. ¡Disponible a partir del 27 de Febrero! ¿Quieres saber más? ¡Contáctame antes que te ganen. contacto: santa cruz buendía yieny kennith. cell: 9*8*6*9*8*7*3*4*6. id: 1*0*3*5*8*9*4</t>
+          <t>Tv./ Duplex / 185 m2 / 3er y 4to Piso / 3 Dorm + 2 Depósitos - 9.9.2.8.6.6.8.2.1.**solo clientes directos** **Amplio duplex en Alquiler, ubicado en 3er y 4to piso de una casa y a media cuadra de Bonito Parque - San Miguel** **contacto: 9. 9. 2. 8. 6. 6. 8. 2. 1. ** **185m² distribuidos en: Sala - ComedorÁrea de Cocina, Área de Lavandería, 3 Dormitorios con Closet, 2 Baños Completos + 2 Pequeños cuartos de servicio (o Depositos) + Baño de Servicio + Linda Terraza** **no hay Cochera pero puede estacionarse al rededor del Parque** **costo mensual: 2600 soles** **condición: 2x1** **luz independiente y agua compartida** **Se acepta mascota** **sólo personas con dni** **Muy Centrica Ubicacion: A media Cdra. De Av. La Marina (Alt. De la 15) y a unos pasos de Plaza San Miguel** **solo se responderá A quienes dejen su numero de contacto. Gracias**</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -804,37 +808,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S/ 2,600</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>(USD 667)</t>
-        </is>
-      </c>
+          <t>S/ 2,500</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>S/ 100 Mantenimiento</t>
+          <t>S/ 180 Mantenimiento</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pasaje ayulo 139</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Jesús María, Lima</t>
-        </is>
-      </c>
+          <t>San Miguel, Lima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -847,10 +843,14 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Departamento Amplio Segundo Piso, Casa, Oficina, ConsultorioSe alquila amplio departamento, completamente refaccionado zonificación comercial zonal, 110 metros cuadrados, 3 dormitorios, 2 banos completos sala, comedor, cocina, patio-lavandería, tiene dos ingresos, como casa habitación, oficina, o consultorios, a 50 metros de la Av Brasil altura cuadra 12, cerca de Bancos, comercios, supermercados, colegios transporte publico, y centros de salud.</t>
+          <t>Alquilo Triplex de 130 m2Acogedor Triplex de 130 m2. Ubicado a pocas cuadras de la Av. Sucre, cerca de la Avenida la Marina a pocas cuadras del Mercado de Magdalena del Mar, perfecta ubicación comercial, cerca de centros comerciales y colegios. Consta de: - 7 años de antigüedad. - Edificio seguro con cámaras y recepción. - Ubicado en el 5to, 6to, 7mo piso. - Pisos de porcelanato. - Cochera con control remoto independiente. * 5 Piso. -Amplia sala, comedor muy iluminado. - Cocina con muebles altos y bajos y campana extractora. * 6 piso. - 01 dormitorio principal con closet y baño completo. - 01 dormitorio secundario con closet. - 01 dormitorio amplio para cama de 2 plaza. - 01 baño completo para dormitorio secundario. *7 piso. - Terraza amplia. - Lavandería iluminada. - Aceptan mascota</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -865,44 +865,36 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Contactar</t>
+          <t>Dueño directo</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S/ 2,600</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>(USD 685)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>S/ 30 Mantenimiento</t>
-        </is>
-      </c>
+          <t>S/ 2,100</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Francisco Masias Lince</t>
+          <t>AV ARICA 134</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>San Eugenio, Lince</t>
+          <t>San Miguel, Lima</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>220 m²</t>
+          <t>103 m²</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>97 m²</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -912,13 +904,13 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1 baño</t>
+          <t>2 baños</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Alquiler de Amplio Departamento con 3 Habitaciones, en La Mejor Zona de LinceDescripción: Alquilo hermoso y amplio departamento ubicado en un 3er piso con vista exterior, calle Francisco Masias, distrito de Lince límite con San Isidro, frente a un hermoso parque con juegos para niños, a solo una cuadra de la Avenida Javier Prado Este, cerca a centros comerciales, mercados, colegios, y principales avenidas con acceso a todos los paraderos de buses, a pocas cuadras del centro financiero de San Isidro. Detalles adicionales: Este hermoso dpto cuenta con 120 mt2, 3 habitaciones sumamente amplias con Walk in closet, sala comedor, cocina, 2 baños completos, además cuenta con una amplia terraza en el 4to nivel donde se encuentra el área de lavandería y tendal con un baño de servicio. El dpto se encuentra semi amoblado, cuenta con camas, un bar, ropero y algunos otros muebles adicionales. Mayor información al 9-9-5-6-4-7-3-6-4 Nelly Uribe agente inmobiliario de Molinmuebles</t>
+          <t>Alquiler de Departamento en San MiguelContacto: santa cruz buendía yieny kennith. cell: 9*8*6*9*8*7*3*4*6. ¡excelente ubicación! Departamento en alquiler - san miguel ¿Te imaginas generar nuevas experiencias familiares en la intimidad de tu departamento? Si eres de las que aprecian las áreas verdes, parques, ambientes ventilados e iluminados y te encuentras buscando un departamento en una zona céntrica, tranquila y segura … ¡este es el departamento ideal para ti! Estratégicamente ubicado a pocas cuadras de la av. Sucre, Bertolotto Municipalidad San miguel, con vías de acceso, cerca de Centros Comerciales, colegios. Te invito a visitar este acogedor Departamento de 103. 20 m2 en 1er piso. -Distribución de este hermoso departamento: -Cocina amplia con respectivos muebles altos y bajos. -Sala comedor amplia e iluminada. -Baño de visita. - 1 habitación principal completo, closet y vista externa e iluminación natural. - 3 habitaciones secundarias. - 1 baño. - Zona de lavandería. - Ubicado en 1er Piso. -No aceptan mascotas. Este Departamento es ideal para una familia que ama la naturaleza, practica algún deporte porque tiene ideales para hacer ejercicio al aire libre y que valora la seguridad, los 7 días de la semana, no te gusta subir escaleras en un primer piso es ideal para ti. ¡Disponible a partir del 27 de Febrero! ¿Quieres saber más? ¡Contáctame antes que te ganen. contacto: santa cruz buendía yieny kennith. cell: 9*8*6*9*8*7*3*4*6. id: 1*0*3*5*8*9*4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -940,29 +932,33 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S/ 2,500</t>
+          <t>S/ 2,599</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>S/ 180 Mantenimiento</t>
+          <t>S/ 1 Mantenimiento</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Av. la Marina 1635, San Miguel 15086</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>San Miguel, Lima</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>180 m²</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>180 m²</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -972,17 +968,13 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2 baños</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+          <t>3 baños</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Alquilo Triplex de 130 m2Acogedor Triplex de 130 m2. Ubicado a pocas cuadras de la Av. Sucre, cerca de la Avenida la Marina a pocas cuadras del Mercado de Magdalena del Mar, perfecta ubicación comercial, cerca de centros comerciales y colegios. Consta de: - 7 años de antigüedad. - Edificio seguro con cámaras y recepción. - Ubicado en el 5to, 6to, 7mo piso. - Pisos de porcelanato. - Cochera con control remoto independiente. * 5 Piso. -Amplia sala, comedor muy iluminado. - Cocina con muebles altos y bajos y campana extractora. * 6 piso. - 01 dormitorio principal con closet y baño completo. - 01 dormitorio secundario con closet. - 01 dormitorio amplio para cama de 2 plaza. - 01 baño completo para dormitorio secundario. *7 piso. - Terraza amplia. - Lavandería iluminada. - Aceptan mascota</t>
+          <t>Cg Alquilo Amplio Duplex Para Oficina a Puerta Cerrada o Vivienda Cg 9.9.7.8.7.7.6.1.1Cg alquilo amplio duplex para oficina A puerta cerrada O vivienda cg 9. 9. 7. 8. 7. 7. 6. 1. 1. 3er Y 4to piso con escaleras descansadas A la altura de la cuadra 15 de la marina zona céntrica Y muy comercial. A 2 cuadras de plaza san miguel, de muy fácil acceso por av universitaria, circuito de playas, sucre. A dos cuadras del colegio juan xxiii, A media cuadra del parque pershing! Consta de los siguientes ambientes: 3er piso: sala comedor. cocina con 2 lavaderos. 2 amplias habitaciones O oficinas con closets. 1 baño completo. 4to piso. 2 escaleras de acceso ( 1 escalera de caracol externa Y 1 interna mas amplia) 1 habitación principal con baño completo incorporado. walking closet principal con escritorio. walking closets secundario con balcón vista A la av. La marina. zona de parrillas O cocina. tendal con lavandería grande. 2 habitaciones de servicio con 1 baño completo. no se paga mantenimiento. no cuenta con estacionamiento pero en la av la marina Y en le parque se encuentra estacionamiento fácilmente. ademas que contamos con una caseta de serenazgo lo cual nos da una mayor tranquilidad A la zona. trato 2 de garantía Y 1 de adelanto. filtros no estar reportado en la central de riesgos Y presentar sustentos de ingresó contáctame soy carolina gloker 9. 9. 7. 8. 7. 7. 6. 1. 1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,40 +989,32 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Dueño directo</t>
+          <t>Contactar</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S/ 2,599</t>
+          <t>S/ 2,500</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>S/ 1 Mantenimiento</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Av. la Marina 1635, San Miguel 15086</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>San Miguel, Lima</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>180 m²</t>
+          <t>126 m²</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>180 m²</t>
+          <t>126 m²</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1040,13 +1024,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3 baños</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>2 baños</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cg Alquilo Amplio Duplex Para Oficina a Puerta Cerrada o Vivienda Cg 9.9.7.8.7.7.6.1.1Cg alquilo amplio duplex para oficina A puerta cerrada O vivienda cg 9. 9. 7. 8. 7. 7. 6. 1. 1. 3er Y 4to piso con escaleras descansadas A la altura de la cuadra 15 de la marina zona céntrica Y muy comercial. A 2 cuadras de plaza san miguel, de muy fácil acceso por av universitaria, circuito de playas, sucre. A dos cuadras del colegio juan xxiii, A media cuadra del parque pershing! Consta de los siguientes ambientes: 3er piso: sala comedor. cocina con 2 lavaderos. 2 amplias habitaciones O oficinas con closets. 1 baño completo. 4to piso. 2 escaleras de acceso ( 1 escalera de caracol externa Y 1 interna mas amplia) 1 habitación principal con baño completo incorporado. walking closet principal con escritorio. walking closets secundario con balcón vista A la av. La marina. zona de parrillas O cocina. tendal con lavandería grande. 2 habitaciones de servicio con 1 baño completo. no se paga mantenimiento. no cuenta con estacionamiento pero en la av la marina Y en le parque se encuentra estacionamiento fácilmente. ademas que contamos con una caseta de serenazgo lo cual nos da una mayor tranquilidad A la zona. trato 2 de garantía Y 1 de adelanto. filtros no estar reportado en la central de riesgos Y presentar sustentos de ingresó contáctame soy carolina gloker 9. 9. 7. 8. 7. 7. 6. 1. 1</t>
+          <t>Alquiler Dpto 3er Piso Cerca Plaza San Miguel 126 m2Alquiler departamento ubicado cerca a Centro Comercial Plaza San Miguel, Open Plaza Tottus, Sodimac, bancos, restaurantes, cines. Con acceso avenidas principales como Av La Marina, Av Brigida Silva, Av Riva Aguero, Prolg. Cuzco. Colegios y universidades: Colegio Claretiano, Innova Schools, Colegio 10 de Octubre, Colegio Mater Admirabilis, Colegio San Cristobal, upc, pucp. Departamento consta: Sala - comedor amplia, 3 dormitorios principal con baño closet, cocina con muebles altos y bajos, comedor diario, área de lavandería, 1 estacionamiento. Condiciones 2 X 1</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1068,25 +1056,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S/ 2,500</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+          <t>S/ 2,580</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(USD 677)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>S/ 150 Mantenimiento</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>Av Antonio José De Sucre 1283, Pueblo Libre 15086, Perú</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pueblo Libre, Lima</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>126 m²</t>
+          <t>98 m²</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>126 m²</t>
+          <t>98 m²</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1099,43 +1099,31 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Alquiler Dpto 3er Piso Cerca Plaza San Miguel 126 m2Alquiler departamento ubicado cerca a Centro Comercial Plaza San Miguel, Open Plaza Tottus, Sodimac, bancos, restaurantes, cines. Con acceso avenidas principales como Av La Marina, Av Brigida Silva, Av Riva Aguero, Prolg. Cuzco. Colegios y universidades: Colegio Claretiano, Innova Schools, Colegio 10 de Octubre, Colegio Mater Admirabilis, Colegio San Cristobal, upc, pucp. Departamento consta: Sala - comedor amplia, 3 dormitorios principal con baño closet, cocina con muebles altos y bajos, comedor diario, área de lavandería, 1 estacionamiento. Condiciones 2 X 1</t>
+          <t>Alquiler de Departamento en Pueblo LibreContacto: Katherine Ross Berroa. id: 102. 911. 4. Si estas cansado de vivir en departamentos pequeños, te presento este hermoso amplio e iluminado en una zona super céntrica en Pueblo Libre, este flats consta de: 01 sala comedor super amplia. 03 dormitorios: ( principal con closet baño y terraza amplia) ; las habitaciones secundarias con closet y 1 con patio) 02 baños completos. 01 cocina cerrada con reposteros altos y bajos. 01 lavandería incluida dentro de la cocina. Pisos de parquet recién tratado. 1er piso, no tiene rampas. Todo esta pintado en color blanco. ingreso independiente. ubicacion: La av. La Marina con Sucre. Condición 2 meses de Garantía y 1 mes de adelanto. Que tenga sustento de ingreso y no infocorp. Seguridad 24 horas. **Mantenimiento: S/. 150 soles ( incluye agua, pago al personal de seguridad, limpieza de áreas comunes)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Destacado</t>
+          <t>Comparar</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Comparar</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Contactar</t>
-        </is>
-      </c>
+          <t>Contactar</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S/ 2,580</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>(USD 677)</t>
-        </is>
-      </c>
+          <t>S/ 2,200</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>S/ 150 Mantenimiento</t>
@@ -1143,12 +1131,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Av Antonio José De Sucre 1283, Pueblo Libre 15086, Perú</t>
+          <t>AV. PACIFICO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pueblo Libre, Lima</t>
+          <t>San Miguel, Lima</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1174,7 +1162,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Alquiler de Departamento en Pueblo LibreContacto: Katherine Ross Berroa. id: 102. 911. 4. Si estas cansado de vivir en departamentos pequeños, te presento este hermoso amplio e iluminado en una zona super céntrica en Pueblo Libre, este flats consta de: 01 sala comedor super amplia. 03 dormitorios: ( principal con closet baño y terraza amplia) ; las habitaciones secundarias con closet y 1 con patio) 02 baños completos. 01 cocina cerrada con reposteros altos y bajos. 01 lavandería incluida dentro de la cocina. Pisos de parquet recién tratado. 1er piso, no tiene rampas. Todo esta pintado en color blanco. ingreso independiente. ubicacion: La av. La Marina con Sucre. Condición 2 meses de Garantía y 1 mes de adelanto. Que tenga sustento de ingreso y no infocorp. Seguridad 24 horas. **Mantenimiento: S/. 150 soles ( incluye agua, pago al personal de seguridad, limpieza de áreas comunes)</t>
+          <t>A. C. vive en Los Condominios La Huaca San Miguel 3 HabitacionesVive en un lugar céntrico de san miguel A unos pasos de tottus, brigida silva, un lugar lleno de comercios, colegios cercanos como innova O saco olivero, farmacias cercanas. Todo lo que necesitas A tu alcance! Departamento amplio!! Octavo piso con ascensor. distribución interna de 90 M2: ingreso A una sala amplia con balcón. Y vista al jardin interno del condominio. *sala amplia con balcon que te permite una excelente ventilación. *cocina amplia con muebles bajos (cuenta con gas calida Y terma A gas) *al lado una división para lavandería. * una sala star. 3 dormitorios: - habitación principal para cama queen con baño completo privado. - segunda habitación con espacio para cama tamañano regular para cama de dos plazas. -tercera habitación con espacio para cama de plaza Y media. Un baño compartido. mantenimiento: aproximado de 160 soles (varia conforme al uso del agua) luz independiente. Adicional si necesita cochera 250 soles mas al precio de oferta. el edificio cuenta con sistema contra incendios. áreas comunes como parque interno Y sala de reuniones. Agenda tu visita al 9, , 4, 0, , 1, , 0, , 6, 0, , 1, , 5, ,</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1192,33 +1180,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S/ 2,400</t>
+          <t>S/ 2,800</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>S/ 110 Mantenimiento</t>
+          <t>S/ 280 Mantenimiento</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AV LIMA 765</t>
+          <t>Av. Julio C. Tello 1025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
+          <t>Lince, Lima</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>133 m²</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>133 m²</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1238,7 +1226,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Departamento en Primer Piso en San MiguelAmplio departamento en Primer Piso. Sala comedor, Cocina cerrada con muebles altos y bajos para almacenamiento, Área de lavandería. Dormitorio principal con closet amplio y baño. Dormitorio secundario 1: Cuenta con espacio para closet y una terraza. Dormitorio secundario 2: Cuenta con espacio para closet y una habitacion incorporada techada como para oficina o sala de estar. Baño completo compartido. Este Condominio, es uno de los más solicitados de la zona, ya que es tranquilo. Está estrategicamente bien ubicado y tiene fácil acceso a transporte público y particular, hacia diferentes distritos de Lima y Callao, asi como a la Unniversidad Católica y upc. Se encuentra a pocas cuadras de las avenidas la Marina, Universtaria, Costanera y a unos minutos de Plaza San Miguel, Open Plaza La Marina, Plaza Vea y Mercado de Magdalena. Servicio de vigilancia 24 hrs. Mantenimiento S/ 110. - Incluye estacionamiento. El departamento también está en modalidad Venta. Precio us$ 135, 000. No tiene hipoteca</t>
+          <t>Coge Tus Maletas y Múdate a Este Amplio Depa AmobladoSi estás buscando comodidad y confort, si te gusta hacer deporte o caminatas al aire libre, si quieres ahorrar tiempo, porque tienes todo muy cerca, entonces, ¡este súper departamento amoblado es lo que estas buscando! Cuenta con una amplia sala comedor, la cocina viene con reposteros altos bajos; lava seca; cocina; refrigeradora; terma y un pequeño cuarto que puede ser utilizado como depósito ó cuarto de planchado; además tiene 3 dormitorios con vista a la calle. El principal con balcón; baño incorporado y televisor. Uno de los dormitorios secundarios también cuenta con balcón, todos los dormitorios tienen closet y cajonería completa. En el hall encontrarás un baño completo con lavamanos de mármol y mamparas de vidrio en la ducha que comparten los dormitorios y 1/2 baño de visitas. No tendrás problemas de estacionamiento ya que tiene una cochera en el sótano. Adicionalmente en el primer piso se encuentra una sala de eventos, con baño y cocina kitchenette y una linda recepción con cámaras de seguridad. ¡Llámame y agenda tu cita!</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1256,33 +1244,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S/ 1,650</t>
+          <t>S/ 2,000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(USD 412)</t>
+          <t>(USD 450)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tnte Diego Ferre 257</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>San Miguel, Lima</t>
-        </is>
-      </c>
+          <t>Pueblo Libre, Lima</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>161 m²</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1292,13 +1276,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2 baños</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>3 baños</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hermoso Dpto de Estreno Super Céntrico Cerca a La Universidad Católica y UnmsmAgente: Harold. Cel: 979*153*063. Hermoso dpto de estreno super céntrico cerca a la Universidad Católica y unmsm. Consta de sala comedor, 3 habitaciones, 2 baños, ubicado en 4o piso sin ascensor y sin cochera. 100m2. No se paga mantenimiento. Contrato de 1 año. Se pide buen crédito y prueba de ingresos. Tnte Diego Ferre 257 San Miguel</t>
+          <t>Ministerio Marina 2000soles 3dorm 160 Mtrs Parqueton Granito CocheraMinisterio marina 2000soles 3dormitorios para king size closets en caoba cajonera. Pusos en dd, tres baños enmayolicados lujosos esoejos biselado, muy elegante edificio. Con servuxio conserjería cel. 9. 4. 5. 9. 3. 5. 5. 2. 0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1316,29 +1304,33 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S/ 2,000</t>
+          <t>S/ 2,250</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>S/ 290 Mantenimiento</t>
+          <t>S/ 60 Mantenimiento</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>TAQUITAHUANA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>San Miguel, Lima</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>107 m²</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>107 m²</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1351,10 +1343,14 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Se Alquila Departamento en El Distrito de San Miguel en La Av Los PatriotasContacto cel: 999*Ver datos. Se alquila departamento en el distrito de San Miguel en la Avenida Los Patriotas. ️1º piso. Cuenta con: Sala - Comedor amplia. Patio grande. 3 dormitorios con sus respectivos closets. 2 baños (dormitorio principal con baño propio) Cocina y lavanderia. ️100 m2. ️Incluye cochera. -Mantenimiento: S/ 290 (incluye vigilancia, luz del área común del edificio, mantenimiento, consumo del agua del departamento) *Precio: S/ 2000 (dos meses de garantia y un mes de adelanto) *Se solicitaran requisitos. Si quieres obtener más información, ver el departamento (previa cita): Ver datos</t>
+          <t>Alquilo Departamento en San MiguelAlquilo departamento de 107 en una casa de 4 pisos ubicada en la calle Taquitahuana cdra 01 en el distrito de San Miguel. Cuenta: - 3 dormitorios. - 2 baños. - sala comedor. - Cocina con muebles altos y bajos. - Lavanderia. - Dormitorio principal con baño y terraza. - Intercomunicador y terma. No tiene ascensor. Cochera dentro de la misma casa en primer piso techado. Condiciones 2 x 1. Cerca a la Av. Precursores, av Faucett. Muy bien ubicado. Visita, previa cita.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1372,18 +1368,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S/ 2,000</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>(USD 520)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>S/ 2,500</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>S/ 180 Mantenimiento</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Calle Santa Lucia Nº 102, Dpto 501</t>
+          <t>Jirón Libertad Nro 1542 Pueblo Libre</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1393,12 +1389,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>97 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>97 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1408,13 +1404,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2 baños</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>3 baños</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Alquilo Departamento IDContacto: narvy morales // cel: 922*435*495. Se Alquila bonito y amplio departamento, en el quinto (5to) piso, con vista a la calle. Ubicado cerca a diversos comercios, bancos, entre otros. Cuenta con: Sala - Comedor (con vista externa) Cocina - Lavandería (con puerta falsa) 03 Dormitorios con closet (el principal con vista externa) 02 Baños completos (01 en el dormitorio principal). Cuenta con intercomunicador. Pago de Mantenimiento: Aprox. 120 soles al mes. Pago de Alquiler: 01 mes de adelanto y 02 meses de garantía.</t>
+          <t>Alquiler de Bello Departamento en Pueblo Libre – 80 + 70 m2Contacto: angela gutierrez 9 9 9 9 1 9 0 0 3. Estas buscando un departamento, amplio, iluminado y acogedor? Con una ubicación estratégica? Aquí te presento! Este lindo departamento de 80 m² de área techada más una terraza en la parte superior de la misma medida, ubicado en el 6to piso de un edificio de 6 pisos en el distrito de Pueblo Libre, a pocas cuadras de importantes avenidas como Av. Brasil, Sucre y La marina, con lindas áreas verdes a su alrededor, mercado de abasto bastante variado! Muy cerca de Supermercados como Metro, Wong, Plaza San Miguel, a unos a minutos de Hospitales y las Clínicas Centenario, San Judas, Stella Maris, y San Felipe, Universidades como San Marcos, Católica, upc, cerca de colegios, iglesias, panaderías y bancos entre otros. Distribución: Departamento: - Sala – Comedor: Piso laminado, con buena circulación de aire e iluminación natural por las ventanas de vidrio, vista a calle. - Cocina: independiente, al costado de sala comedor, cuenta con muebles altos y bajos en melamina, piso de porcelanato. - Dormitorio Principal con piso de porcelanato, buena iluminación y closets. - Dos habitaciones secundarias, ubicadas a continuación de la habitación principal con piso de porcelanato y closets cada una. - Baño Completo, uno en habitación principal y otro entre las dos habitaciones con paredes y pisos de porcelanato. Terraza. - Área de lavandería: ubicada en una zona libre con su propio tendal y lavadero de loza color blanco. - Baño completo. También incluye: - Medidor de luz independiente. - Cámaras de seguridad. - Bomba de agua hidroneumática que garantiza el suministro y presión de agua. - Tanque cisterna para todo el edificio. Renta Mensual con estacionamiento: S/2, 500. Renta Mensual sin estacionamiento: S/2, 300. Condiciones de Alquiler: Un mes de adelanto y 2 meses de garantía.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1432,29 +1432,33 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S/ 2,800</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>S/ 2,470</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(USD 650)</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>S/ 100 Mantenimiento</t>
+          <t>S/ 250 Mantenimiento</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
+          <t>Jesús María, Lima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>108 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>108 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1464,13 +1468,13 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1 baño</t>
+          <t>2 baños</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Alquilo Lindo y Amplio Departamento Duplex en San Miguel 108 mAlquilo lindo y amplio Departamento Duplex en San Miguel, semi amoblado, con vista exterior, bien iluminado, buena distribución, con pisos laminados y porcelanato matte español, en el 4to. Piso. Límites con Magdalena, zona tranquila cerca a parques, centro comerciales, mercado, a pocos minutos de Plaza San Miguel. En el primer nivel se encuentra la sala comedor, cocina abierta con muebles altos y bajos, tablero de granito, griferia vainsa, espacio abierto y moderno. Una habitación y un baño completo. En el segundo nivel se encuentran dos habitaciones, una con terraza, dos baños completos y zona de lavandería. Cuenta con aires. Edificio de 4 pisos. Departamentos por Piso: 2. Área: 108. Sala. Comedor. 3 Dormitorios: 2 dormitorios con cama. Baños completos: 3. Cocina con refrigeradora, cocina, microondas, campana extractora y cocina. Lavandería con lavaseca. Terraza. Alquiler: s/. 2, 800. 00 soles. Mantenimiento: 100 soles. Modalidad: 1 mes de adelanto y 2 de garantía. Requisitos: Documentación que sustenten ingresos. *El edificio no cuenta con ascensor.</t>
+          <t>Departamento en Alquiler en Jesus MariaAlquilo!! Lindo departamento en Jesús María. Ubicación céntrica, a un paso de la upc, Universidad del Pacifico y Real Plaza de Salaverry. Espacios bien distribuidos, 3 dormitorios de buen tamaño. Av San Felipe cdra 6 piso 11. Precio: $650. Área: 95 m2. Características: - Living comedor. - Cocina. - Balcón. - 3 dormitorios. - 2 baños. No cuenta con cochera pero en el edificio hay disponibles en alquiler. Citas fáciles!!</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1488,57 +1492,53 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S/ 2,800</t>
+          <t>S/ 2,600</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>(USD 725)</t>
+          <t>(USD 685)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S/ 190 Mantenimiento</t>
+          <t>S/ 30 Mantenimiento</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Victor Pantoja 446</t>
+          <t>Francisco Masias Lince</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pueblo Libre, Lima</t>
+          <t>San Eugenio, Lince</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>105 m²</t>
+          <t>220 m²</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>106 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4 dorm.</t>
+          <t>3 dorm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3 baños</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+          <t>1 baño</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Se Alquila Departamento Al Costado de Parque San Martin** agente encargado ** emma melgarejo 9. 9. 6. 2. 6. 7. 8. 2. 0. ** se alquila hermoso departamento en zona tranquila, rodeada de parques Y cerca A la caseta de serenazgo, Buena Zona tranquila, rodeada de tres parques, media cuadra de caseta de Serenazgo de Parque San Martin, Dos cuadras del Hospital Santa Rosa, Av. Bolivar, Av. Sucre y cerca al Mercado de Pueblo libre, Colegios, Panaderías Centros comerciales, y Super Markers. Departamento de 7 pisos (dos departamentos por piso) • Departamento Vista Externa en 4to piso en Pueblo Libre. • Cuenta con Ascensor. • Departamento cuenta con: • Sala / Comedor. • Cocina amplia con muebles altos y bajos. • 3 Dormitorios con walking closet. • 3 baños. • 1 cuarto de servicio. • Cuenta con cochera techada. Alquiler 2, 800 soles. Mantenimiento 190 soles aproximados. Arbitrios 50 soles mensuales</t>
+          <t>Alquiler de Amplio Departamento con 3 Habitaciones, en La Mejor Zona de LinceDescripción: Alquilo hermoso y amplio departamento ubicado en un 3er piso con vista exterior, calle Francisco Masias, distrito de Lince límite con San Isidro, frente a un hermoso parque con juegos para niños, a solo una cuadra de la Avenida Javier Prado Este, cerca a centros comerciales, mercados, colegios, y principales avenidas con acceso a todos los paraderos de buses, a pocas cuadras del centro financiero de San Isidro. Detalles adicionales: Este hermoso dpto cuenta con 120 mt2, 3 habitaciones sumamente amplias con Walk in closet, sala comedor, cocina, 2 baños completos, además cuenta con una amplia terraza en el 4to nivel donde se encuentra el área de lavandería y tendal con un baño de servicio. El dpto se encuentra semi amoblado, cuenta con camas, un bar, ropero y algunos otros muebles adicionales. Mayor información al 9-9-5-6-4-7-3-6-4 Nelly Uribe agente inmobiliario de Molinmuebles</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1560,25 +1560,29 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>S/ 200 Mantenimiento</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Av. Los Insurgentes 556</t>
+          <t>Calle PABLO BERMUDEZ S/N</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
+          <t>Jesús María, Lima</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>122 m²</t>
+          <t>96 m²</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>122 m²</t>
+          <t>96 m²</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1588,13 +1592,13 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1 baño</t>
+          <t>2 baños</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Alquilo Amplio Dpto en Primer Piso San Miguel IDContacto: olinda barrueto // cel: Ver datos. dpto remodelado con puertas Y maparas anti ruido. 3 dormitorios (2 con closet Y espejos) 1 baño completo (cuenta con rapiducha Y ventilador) amplia sala comedor con piso de porcelanato Y mampara. cocina con reposteros nuevos cuyas puertas abren Y cierran suavemente. espacio para comedor de diario. area de lavanderia con instalaciones para lavadora. 1 patio al fondo del dpto con amplias mamparas antiruido. condiciones: 2 meses de garantia Y 1 mes de adelanto. no mascotas. demostrar ingresos. impecable en el sistema financiero</t>
+          <t>Amplio Departamento en Jesús MaríaExcelente oportunidad de inversión! Se alquila solo para oficina. Departamento sólo para oficina en óptimas condiciones, con vista exterior y buena distribución. La propiedad está una zona céntrica ya que está cerca de supermercados, empresas, bancos, etc. Características: - Amplia sala comedor con grandes ventanales vista a la ciudad. -Cocina cerrada. -Una zona de lavandería. -03 Oficinas: 02 Oficinas son amplias y tienen ventana. 01 Oficina pequeño. -02 Baños. -Área de servicio completo. -Doble acceso por sala y cocina. Ubicado en el piso 8, el edificio tiene ascensor.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1612,33 +1616,33 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S/ 2,800</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>S/ 280 Mantenimiento</t>
-        </is>
-      </c>
+          <t>S/ 2,200</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(USD 572)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Av. Julio C. Tello 1025</t>
+          <t>PENA NEGRA 166</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lince, Lima</t>
+          <t>San Miguel, Lima</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>133 m²</t>
+          <t>94 m²</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>133 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1651,14 +1655,10 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Coge Tus Maletas y Múdate a Este Amplio Depa AmobladoSi estás buscando comodidad y confort, si te gusta hacer deporte o caminatas al aire libre, si quieres ahorrar tiempo, porque tienes todo muy cerca, entonces, ¡este súper departamento amoblado es lo que estas buscando! Cuenta con una amplia sala comedor, la cocina viene con reposteros altos bajos; lava seca; cocina; refrigeradora; terma y un pequeño cuarto que puede ser utilizado como depósito ó cuarto de planchado; además tiene 3 dormitorios con vista a la calle. El principal con balcón; baño incorporado y televisor. Uno de los dormitorios secundarios también cuenta con balcón, todos los dormitorios tienen closet y cajonería completa. En el hall encontrarás un baño completo con lavamanos de mármol y mamparas de vidrio en la ducha que comparten los dormitorios y 1/2 baño de visitas. No tendrás problemas de estacionamiento ya que tiene una cochera en el sótano. Adicionalmente en el primer piso se encuentra una sala de eventos, con baño y cocina kitchenette y una linda recepción con cámaras de seguridad. ¡Llámame y agenda tu cita!</t>
+          <t>Se Alquila Departamento en San Miguel"¡Vive la vida en grande en San Miguel Lima! Tenemos una propiedad en alquiler que es un sueño hecho realidad. Con 85 m2 de espacio y 3 habitaciones, encontrarás todo lo que necesitas para una vida cómoda y acogedora. ¡Y lo mejor de todo es que tus amados compañeros de cuatro patas son bienvenidos! La propiedad cuenta con: 3 habitaciones amplias y cómodas. 2 Baños. Area de lavanderia. Cocina equipada y moderna. Baño privado. Áreas comunes para disfrutar con amigos y familiares. No pierdas la oportunidad de vivir en una ubicación privilegiada con acceso a todas las comodidades que necesitas. ¡Contáctanos hoy mismo para hacer una cita y ver la propiedad en persona! ¡Prepárate para enamorarte de tu nuevo hogar! "</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1676,33 +1676,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S/ 3,000</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>(USD 789)</t>
-        </is>
-      </c>
+          <t>S/ 2,300</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Av. Cuba 486</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jesús María, Lima</t>
+          <t>Mariscal Antonio Jose De Sucre, Pueblo Libre</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1715,14 +1711,10 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Se Alquila Departamento de Estreno - Primer Piso IDContacto: sharon caceres // cel: 982*201*442. at: 110 M2. Ubicación: Edificio Cuba Connect - Avenida Cuba 486 - Jesús María. Descripción: - Sala / Comedor. - Terraza. - Cocina cerrada. - Lavandería. - Dormitorio principal con baño incorporado. - Dos habitaciones secundarias. - Baño de visitas completo. El edificio cuenta con: - Tres zonas de parrilla. - sum. - Hall / Counter de ingreso. - Sistema contra incendio. El alquiler incluye un estacionamiento 03. Contáctanos y conoce tu nuevo hogar!</t>
+          <t>Pueblo Libre, Av Sucre, Alquilo Dpto. 1er. Piso 3, Dormt.Alquilo departamento de 100 mt2, 1er piso, agua, luz y desagüe independizados, 3 dormitorios con closets, en Pueblo libre, el departamento esta ubicado dentro de una quinta en la Av. Sucre, sala y comedor amplia, cocina con muebles altos y bajos, 3 dormitorios amplios, 2 baños, lavandería, tiene 2 puertas de entrada, jardinera exterior, patio interior, techo alto muy buena iluminación, el departamento esta muy bien ubicado, cerca a centros comerciales, avenidas, colegios, universidades, ( A 3 cuadras de la Av Brasil, a 2 cuadras de la Av. La Marina, a 2 cuadras de la Av La mar). Direccion ; Avenida Antonio de Sucre 879 interior I, Pueblo Libre. Previa cita: Marco Samplini. Ver datos / Ver datos</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1740,42 +1732,38 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S/ 2,900</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>(USD 750)</t>
-        </is>
-      </c>
+          <t>S/ 2,950</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>S/ 1 Mantenimiento</t>
+          <t>S/ 250 Mantenimiento</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jirón Cuzco 1056</t>
+          <t>AV SALAVERRY 20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pando Etapa Iv, San Miguel</t>
+          <t>Jesús María, Lima</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>180 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>180 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4 dorm.</t>
+          <t>3 dorm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1786,7 +1774,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Hermoso Departamento en El Corazón de San MiguelUbicado en el 4to Piso. Ubicación privilegiada cerca a zonas comerciales, colegios, universidades. Perfecto para familias: Cuenta con 4 dormitorios y 3 baños completos. Adicionalmente cuenta con 1 cuarto de servicio con baño completo. No cuenta con cochera; sin embargo en la misma cuadra se puede alquilar una. No cuenta con Ascensor</t>
+          <t>Alquilo Departamento 120 m2 3 Hab 1 Piso con Balcon Vista a La Calle SalaverryAlquilo amplio departamento excelente ubicacion frente A la universidad pacifico, en la av salaverry cuadra 20 A unas cuadras de real plaza salaverry, colegios, bancos, etc. Departamento cuenta con sala comedor amplia ventilada E iluminada con balcon vista A la calle. cocina con muebles altos Y bajos area de lavanderia. 3 habitaciones amplias todas ingresan camas amplias mas escritorio cuenta con closet, dormitorio principal con jacuzzi. cuarto Y baño de servicio. departamento en 1 piso. mayor informacion llamar giannina huarcaya 9. 6. 6. 3. 5. 9. 4. 2. 4</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1801,40 +1789,40 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Dueño directo</t>
+          <t>Contactar</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S/ 2,950</t>
+          <t>S/ 2,600</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>S/ 250 Mantenimiento</t>
+          <t>S/ 10 Mantenimiento</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AV SALAVERRY 20</t>
+          <t>PASAJE CALDERON DE LA BARCA 106</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jesús María, Lima</t>
+          <t>San Miguel, Lima</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1850,7 +1838,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Alquilo Departamento 120 m2 3 Hab 1 Piso con Balcon Vista a La Calle SalaverryAlquilo amplio departamento excelente ubicacion frente A la universidad pacifico, en la av salaverry cuadra 20 A unas cuadras de real plaza salaverry, colegios, bancos, etc. Departamento cuenta con sala comedor amplia ventilada E iluminada con balcon vista A la calle. cocina con muebles altos Y bajos area de lavanderia. 3 habitaciones amplias todas ingresan camas amplias mas escritorio cuenta con closet, dormitorio principal con jacuzzi. cuarto Y baño de servicio. departamento en 1 piso. mayor informacion llamar giannina huarcaya 9. 6. 6. 3. 5. 9. 4. 2. 4</t>
+          <t>Amplio Duplex en San Miguel C0ntacto Dora Velasquez 9.9.2.2.6.8.3.6.3Alquilo amplio duplex de 160 M2 en san miguel excelente ubicacion! Cerca A los colegios juan 23, san judas tadeo, ann sullivan - universidades la catolica, upc. A media cuadra de la 15 av la marina entre bolognesi ( ex cueva) Y la av. universitaria, A 2 cuadras de plaza san mniguel. 3er Y 4to piso con escaleras descansadas. un departamento por piso. 3 amplias habitaciones con roperos. 3 baños completos con calentador de agua. sala comedor. cocina. lavanderia Y amplio patio con colgadores de ropas. balcon. 3 ambientes para deposito. Almacen O escritorios. A media cuadra del parque pershing que cuenta con una base de serenazgo. comunicate ya Y alquila este amplio duplex. contacto dora velasquez 9. 9. 2. 2. 6. 8. 3. 6. 3</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1872,58 +1860,58 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S/ 2,600</t>
+          <t>S/ 2,900</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(USD 680)</t>
+          <t>(USD 750)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>S/ 120 Mantenimiento</t>
+          <t>S/ 1 Mantenimiento</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Calle Oliva Fidel Escudero, san miguel</t>
+          <t>Jirón Cuzco 1056</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pando, San Miguel</t>
+          <t>Pando Etapa Iv, San Miguel</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>180 m²</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>180 m²</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3 dorm.</t>
+          <t>4 dorm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2 baños</t>
+          <t>3 baños</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Alquiler de Departamento en San Miguel - Calle Oliva Fidel EscuderoVive en el corazón de San Miguel a 1 cuadra del C. C. Plaza San Miguel, Super Mercado Metro, Colegio Claretiano, tiendas, restaurantes, bancos y farmacias. Hermoso departamento amplio, iluminado, impecable, listo para mudarse. Piso 9 - Pen House. - Cocina amoblada – reposteros altos y bajos. - Sala – Comedor. - 3 dormitorios. - Dormitorio Principal con baño incluido. - 02 dormitorios secundarios que comparten un baño completo. - Terraza – bbq. - Espacio techado para deposito. - Área de Lavandería. - Ascensor. claudia raimondi. Ver datos</t>
+          <t>Hermoso Departamento en El Corazón de San MiguelUbicado en el 4to Piso. Ubicación privilegiada cerca a zonas comerciales, colegios, universidades. Perfecto para familias: Cuenta con 4 dormitorios y 3 baños completos. Adicionalmente cuenta con 1 cuarto de servicio con baño completo. No cuenta con cochera; sin embargo en la misma cuadra se puede alquilar una. No cuenta con Ascensor</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Destacado</t>
+          <t>Super destacado</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1933,7 +1921,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Contactar</t>
+          <t>Dueño directo</t>
         </is>
       </c>
     </row>
@@ -1943,30 +1931,34 @@
           <t>S/ 2,600</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(USD 680)</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>S/ 1 Mantenimiento</t>
+          <t>S/ 120 Mantenimiento</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Psje. Calderon de la Barca 106</t>
+          <t>Calle Oliva Fidel Escudero, san miguel</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
+          <t>Pando, San Miguel</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>185 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>185 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1976,13 +1968,13 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3 baños</t>
+          <t>2 baños</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Tv./ Duplex / 185 m2 / 3er y 4to Piso / 3 Dorm + 2 Depósitos - 9.9.2.8.6.6.8.2.1.**solo clientes directos** **Amplio duplex en Alquiler, ubicado en 3er y 4to piso de una casa y a media cuadra de Bonito Parque - San Miguel** **contacto: 9. 9. 2. 8. 6. 6. 8. 2. 1. ** **185m² distribuidos en: Sala - ComedorÁrea de Cocina, Área de Lavandería, 3 Dormitorios con Closet, 2 Baños Completos + 2 Pequeños cuartos de servicio (o Depositos) + Baño de Servicio + Linda Terraza** **no hay Cochera pero puede estacionarse al rededor del Parque** **costo mensual: 2600 soles** **condición: 2x1** **luz independiente y agua compartida** **Se acepta mascota** **sólo personas con dni** **Muy Centrica Ubicacion: A media Cdra. De Av. La Marina (Alt. De la 15) y a unos pasos de Plaza San Miguel** **solo se responderá A quienes dejen su numero de contacto. Gracias**</t>
+          <t>Alquiler de Departamento en San Miguel - Calle Oliva Fidel EscuderoVive en el corazón de San Miguel a 1 cuadra del C. C. Plaza San Miguel, Super Mercado Metro, Colegio Claretiano, tiendas, restaurantes, bancos y farmacias. Hermoso departamento amplio, iluminado, impecable, listo para mudarse. Piso 9 - Pen House. - Cocina amoblada – reposteros altos y bajos. - Sala – Comedor. - 3 dormitorios. - Dormitorio Principal con baño incluido. - 02 dormitorios secundarios que comparten un baño completo. - Terraza – bbq. - Espacio techado para deposito. - Área de Lavandería. - Ascensor. claudia raimondi. Ver datos</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2004,14 +1996,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S/ 2,100</t>
+          <t>S/ 2,600</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>S/ 1 Mantenimiento</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AV ARICA 134</t>
+          <t>Psje. Calderon de la Barca 106</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2021,12 +2017,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>103 m²</t>
+          <t>185 m²</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>97 m²</t>
+          <t>185 m²</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2036,13 +2032,13 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2 baños</t>
+          <t>3 baños</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Alquiler de Departamento en San MiguelContacto: santa cruz buendía yieny kennith. cell: 9*8*6*9*8*7*3*4*6. ¡excelente ubicación! Departamento en alquiler - san miguel ¿Te imaginas generar nuevas experiencias familiares en la intimidad de tu departamento? Si eres de las que aprecian las áreas verdes, parques, ambientes ventilados e iluminados y te encuentras buscando un departamento en una zona céntrica, tranquila y segura … ¡este es el departamento ideal para ti! Estratégicamente ubicado a pocas cuadras de la av. Sucre, Bertolotto Municipalidad San miguel, con vías de acceso, cerca de Centros Comerciales, colegios. Te invito a visitar este acogedor Departamento de 103. 20 m2 en 1er piso. -Distribución de este hermoso departamento: -Cocina amplia con respectivos muebles altos y bajos. -Sala comedor amplia e iluminada. -Baño de visita. - 1 habitación principal completo, closet y vista externa e iluminación natural. - 3 habitaciones secundarias. - 1 baño. - Zona de lavandería. - Ubicado en 1er Piso. -No aceptan mascotas. Este Departamento es ideal para una familia que ama la naturaleza, practica algún deporte porque tiene ideales para hacer ejercicio al aire libre y que valora la seguridad, los 7 días de la semana, no te gusta subir escaleras en un primer piso es ideal para ti. ¡Disponible a partir del 27 de Febrero! ¿Quieres saber más? ¡Contáctame antes que te ganen. contacto: santa cruz buendía yieny kennith. cell: 9*8*6*9*8*7*3*4*6. id: 1*0*3*5*8*9*4</t>
+          <t>Tv./ Duplex / 185 m2 / 3er y 4to Piso / 3 Dorm + 2 Depósitos - 9.9.2.8.6.6.8.2.1.**solo clientes directos** **Amplio duplex en Alquiler, ubicado en 3er y 4to piso de una casa y a media cuadra de Bonito Parque - San Miguel** **contacto: 9. 9. 2. 8. 6. 6. 8. 2. 1. ** **185m² distribuidos en: Sala - ComedorÁrea de Cocina, Área de Lavandería, 3 Dormitorios con Closet, 2 Baños Completos + 2 Pequeños cuartos de servicio (o Depositos) + Baño de Servicio + Linda Terraza** **no hay Cochera pero puede estacionarse al rededor del Parque** **costo mensual: 2600 soles** **condición: 2x1** **luz independiente y agua compartida** **Se acepta mascota** **sólo personas con dni** **Muy Centrica Ubicacion: A media Cdra. De Av. La Marina (Alt. De la 15) y a unos pasos de Plaza San Miguel** **solo se responderá A quienes dejen su numero de contacto. Gracias**</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2064,37 +2060,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S/ 2,600</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>(USD 667)</t>
-        </is>
-      </c>
+          <t>S/ 2,500</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>S/ 100 Mantenimiento</t>
+          <t>S/ 180 Mantenimiento</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>pasaje ayulo 139</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Jesús María, Lima</t>
-        </is>
-      </c>
+          <t>San Miguel, Lima</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2107,10 +2095,14 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Departamento Amplio Segundo Piso, Casa, Oficina, ConsultorioSe alquila amplio departamento, completamente refaccionado zonificación comercial zonal, 110 metros cuadrados, 3 dormitorios, 2 banos completos sala, comedor, cocina, patio-lavandería, tiene dos ingresos, como casa habitación, oficina, o consultorios, a 50 metros de la Av Brasil altura cuadra 12, cerca de Bancos, comercios, supermercados, colegios transporte publico, y centros de salud.</t>
+          <t>Alquilo Triplex de 130 m2Acogedor Triplex de 130 m2. Ubicado a pocas cuadras de la Av. Sucre, cerca de la Avenida la Marina a pocas cuadras del Mercado de Magdalena del Mar, perfecta ubicación comercial, cerca de centros comerciales y colegios. Consta de: - 7 años de antigüedad. - Edificio seguro con cámaras y recepción. - Ubicado en el 5to, 6to, 7mo piso. - Pisos de porcelanato. - Cochera con control remoto independiente. * 5 Piso. -Amplia sala, comedor muy iluminado. - Cocina con muebles altos y bajos y campana extractora. * 6 piso. - 01 dormitorio principal con closet y baño completo. - 01 dormitorio secundario con closet. - 01 dormitorio amplio para cama de 2 plaza. - 01 baño completo para dormitorio secundario. *7 piso. - Terraza amplia. - Lavandería iluminada. - Aceptan mascota</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2125,44 +2117,36 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Contactar</t>
+          <t>Dueño directo</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S/ 2,600</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>(USD 685)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>S/ 30 Mantenimiento</t>
-        </is>
-      </c>
+          <t>S/ 2,100</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Francisco Masias Lince</t>
+          <t>AV ARICA 134</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>San Eugenio, Lince</t>
+          <t>San Miguel, Lima</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>220 m²</t>
+          <t>103 m²</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>97 m²</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2172,13 +2156,13 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1 baño</t>
+          <t>2 baños</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Alquiler de Amplio Departamento con 3 Habitaciones, en La Mejor Zona de LinceDescripción: Alquilo hermoso y amplio departamento ubicado en un 3er piso con vista exterior, calle Francisco Masias, distrito de Lince límite con San Isidro, frente a un hermoso parque con juegos para niños, a solo una cuadra de la Avenida Javier Prado Este, cerca a centros comerciales, mercados, colegios, y principales avenidas con acceso a todos los paraderos de buses, a pocas cuadras del centro financiero de San Isidro. Detalles adicionales: Este hermoso dpto cuenta con 120 mt2, 3 habitaciones sumamente amplias con Walk in closet, sala comedor, cocina, 2 baños completos, además cuenta con una amplia terraza en el 4to nivel donde se encuentra el área de lavandería y tendal con un baño de servicio. El dpto se encuentra semi amoblado, cuenta con camas, un bar, ropero y algunos otros muebles adicionales. Mayor información al 9-9-5-6-4-7-3-6-4 Nelly Uribe agente inmobiliario de Molinmuebles</t>
+          <t>Alquiler de Departamento en San MiguelContacto: santa cruz buendía yieny kennith. cell: 9*8*6*9*8*7*3*4*6. ¡excelente ubicación! Departamento en alquiler - san miguel ¿Te imaginas generar nuevas experiencias familiares en la intimidad de tu departamento? Si eres de las que aprecian las áreas verdes, parques, ambientes ventilados e iluminados y te encuentras buscando un departamento en una zona céntrica, tranquila y segura … ¡este es el departamento ideal para ti! Estratégicamente ubicado a pocas cuadras de la av. Sucre, Bertolotto Municipalidad San miguel, con vías de acceso, cerca de Centros Comerciales, colegios. Te invito a visitar este acogedor Departamento de 103. 20 m2 en 1er piso. -Distribución de este hermoso departamento: -Cocina amplia con respectivos muebles altos y bajos. -Sala comedor amplia e iluminada. -Baño de visita. - 1 habitación principal completo, closet y vista externa e iluminación natural. - 3 habitaciones secundarias. - 1 baño. - Zona de lavandería. - Ubicado en 1er Piso. -No aceptan mascotas. Este Departamento es ideal para una familia que ama la naturaleza, practica algún deporte porque tiene ideales para hacer ejercicio al aire libre y que valora la seguridad, los 7 días de la semana, no te gusta subir escaleras en un primer piso es ideal para ti. ¡Disponible a partir del 27 de Febrero! ¿Quieres saber más? ¡Contáctame antes que te ganen. contacto: santa cruz buendía yieny kennith. cell: 9*8*6*9*8*7*3*4*6. id: 1*0*3*5*8*9*4</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2200,29 +2184,33 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S/ 2,500</t>
+          <t>S/ 2,599</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>S/ 180 Mantenimiento</t>
+          <t>S/ 1 Mantenimiento</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Av. la Marina 1635, San Miguel 15086</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>San Miguel, Lima</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>180 m²</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>180 m²</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2232,17 +2220,13 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2 baños</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+          <t>3 baños</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Alquilo Triplex de 130 m2Acogedor Triplex de 130 m2. Ubicado a pocas cuadras de la Av. Sucre, cerca de la Avenida la Marina a pocas cuadras del Mercado de Magdalena del Mar, perfecta ubicación comercial, cerca de centros comerciales y colegios. Consta de: - 7 años de antigüedad. - Edificio seguro con cámaras y recepción. - Ubicado en el 5to, 6to, 7mo piso. - Pisos de porcelanato. - Cochera con control remoto independiente. * 5 Piso. -Amplia sala, comedor muy iluminado. - Cocina con muebles altos y bajos y campana extractora. * 6 piso. - 01 dormitorio principal con closet y baño completo. - 01 dormitorio secundario con closet. - 01 dormitorio amplio para cama de 2 plaza. - 01 baño completo para dormitorio secundario. *7 piso. - Terraza amplia. - Lavandería iluminada. - Aceptan mascota</t>
+          <t>Cg Alquilo Amplio Duplex Para Oficina a Puerta Cerrada o Vivienda Cg 9.9.7.8.7.7.6.1.1Cg alquilo amplio duplex para oficina A puerta cerrada O vivienda cg 9. 9. 7. 8. 7. 7. 6. 1. 1. 3er Y 4to piso con escaleras descansadas A la altura de la cuadra 15 de la marina zona céntrica Y muy comercial. A 2 cuadras de plaza san miguel, de muy fácil acceso por av universitaria, circuito de playas, sucre. A dos cuadras del colegio juan xxiii, A media cuadra del parque pershing! Consta de los siguientes ambientes: 3er piso: sala comedor. cocina con 2 lavaderos. 2 amplias habitaciones O oficinas con closets. 1 baño completo. 4to piso. 2 escaleras de acceso ( 1 escalera de caracol externa Y 1 interna mas amplia) 1 habitación principal con baño completo incorporado. walking closet principal con escritorio. walking closets secundario con balcón vista A la av. La marina. zona de parrillas O cocina. tendal con lavandería grande. 2 habitaciones de servicio con 1 baño completo. no se paga mantenimiento. no cuenta con estacionamiento pero en la av la marina Y en le parque se encuentra estacionamiento fácilmente. ademas que contamos con una caseta de serenazgo lo cual nos da una mayor tranquilidad A la zona. trato 2 de garantía Y 1 de adelanto. filtros no estar reportado en la central de riesgos Y presentar sustentos de ingresó contáctame soy carolina gloker 9. 9. 7. 8. 7. 7. 6. 1. 1</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2257,40 +2241,32 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Dueño directo</t>
+          <t>Contactar</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S/ 2,599</t>
+          <t>S/ 2,500</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>S/ 1 Mantenimiento</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Av. la Marina 1635, San Miguel 15086</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
           <t>San Miguel, Lima</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>180 m²</t>
+          <t>126 m²</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>180 m²</t>
+          <t>126 m²</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2300,13 +2276,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3 baños</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>2 baños</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cg Alquilo Amplio Duplex Para Oficina a Puerta Cerrada o Vivienda Cg 9.9.7.8.7.7.6.1.1Cg alquilo amplio duplex para oficina A puerta cerrada O vivienda cg 9. 9. 7. 8. 7. 7. 6. 1. 1. 3er Y 4to piso con escaleras descansadas A la altura de la cuadra 15 de la marina zona céntrica Y muy comercial. A 2 cuadras de plaza san miguel, de muy fácil acceso por av universitaria, circuito de playas, sucre. A dos cuadras del colegio juan xxiii, A media cuadra del parque pershing! Consta de los siguientes ambientes: 3er piso: sala comedor. cocina con 2 lavaderos. 2 amplias habitaciones O oficinas con closets. 1 baño completo. 4to piso. 2 escaleras de acceso ( 1 escalera de caracol externa Y 1 interna mas amplia) 1 habitación principal con baño completo incorporado. walking closet principal con escritorio. walking closets secundario con balcón vista A la av. La marina. zona de parrillas O cocina. tendal con lavandería grande. 2 habitaciones de servicio con 1 baño completo. no se paga mantenimiento. no cuenta con estacionamiento pero en la av la marina Y en le parque se encuentra estacionamiento fácilmente. ademas que contamos con una caseta de serenazgo lo cual nos da una mayor tranquilidad A la zona. trato 2 de garantía Y 1 de adelanto. filtros no estar reportado en la central de riesgos Y presentar sustentos de ingresó contáctame soy carolina gloker 9. 9. 7. 8. 7. 7. 6. 1. 1</t>
+          <t>Alquiler Dpto 3er Piso Cerca Plaza San Miguel 126 m2Alquiler departamento ubicado cerca a Centro Comercial Plaza San Miguel, Open Plaza Tottus, Sodimac, bancos, restaurantes, cines. Con acceso avenidas principales como Av La Marina, Av Brigida Silva, Av Riva Aguero, Prolg. Cuzco. Colegios y universidades: Colegio Claretiano, Innova Schools, Colegio 10 de Octubre, Colegio Mater Admirabilis, Colegio San Cristobal, upc, pucp. Departamento consta: Sala - comedor amplia, 3 dormitorios principal con baño closet, cocina con muebles altos y bajos, comedor diario, área de lavandería, 1 estacionamiento. Condiciones 2 X 1</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2328,25 +2308,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S/ 2,500</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+          <t>S/ 2,580</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>(USD 677)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>S/ 150 Mantenimiento</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>Av Antonio José De Sucre 1283, Pueblo Libre 15086, Perú</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pueblo Libre, Lima</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>126 m²</t>
+          <t>98 m²</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>126 m²</t>
+          <t>98 m²</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2359,43 +2351,31 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Alquiler Dpto 3er Piso Cerca Plaza San Miguel 126 m2Alquiler departamento ubicado cerca a Centro Comercial Plaza San Miguel, Open Plaza Tottus, Sodimac, bancos, restaurantes, cines. Con acceso avenidas principales como Av La Marina, Av Brigida Silva, Av Riva Aguero, Prolg. Cuzco. Colegios y universidades: Colegio Claretiano, Innova Schools, Colegio 10 de Octubre, Colegio Mater Admirabilis, Colegio San Cristobal, upc, pucp. Departamento consta: Sala - comedor amplia, 3 dormitorios principal con baño closet, cocina con muebles altos y bajos, comedor diario, área de lavandería, 1 estacionamiento. Condiciones 2 X 1</t>
+          <t>Alquiler de Departamento en Pueblo LibreContacto: Katherine Ross Berroa. id: 102. 911. 4. Si estas cansado de vivir en departamentos pequeños, te presento este hermoso amplio e iluminado en una zona super céntrica en Pueblo Libre, este flats consta de: 01 sala comedor super amplia. 03 dormitorios: ( principal con closet baño y terraza amplia) ; las habitaciones secundarias con closet y 1 con patio) 02 baños completos. 01 cocina cerrada con reposteros altos y bajos. 01 lavandería incluida dentro de la cocina. Pisos de parquet recién tratado. 1er piso, no tiene rampas. Todo esta pintado en color blanco. ingreso independiente. ubicacion: La av. La Marina con Sucre. Condición 2 meses de Garantía y 1 mes de adelanto. Que tenga sustento de ingreso y no infocorp. Seguridad 24 horas. **Mantenimiento: S/. 150 soles ( incluye agua, pago al personal de seguridad, limpieza de áreas comunes)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Destacado</t>
+          <t>Comparar</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Comparar</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Contactar</t>
-        </is>
-      </c>
+          <t>Contactar</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S/ 2,580</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>(USD 677)</t>
-        </is>
-      </c>
+          <t>S/ 2,200</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>S/ 150 Mantenimiento</t>
@@ -2403,12 +2383,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Av Antonio José De Sucre 1283, Pueblo Libre 15086, Perú</t>
+          <t>AV. PACIFICO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pueblo Libre, Lima</t>
+          <t>San Miguel, Lima</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2434,7 +2414,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Alquiler de Departamento en Pueblo LibreContacto: Katherine Ross Berroa. id: 102. 911. 4. Si estas cansado de vivir en departamentos pequeños, te presento este hermoso amplio e iluminado en una zona super céntrica en Pueblo Libre, este flats consta de: 01 sala comedor super amplia. 03 dormitorios: ( principal con closet baño y terraza amplia) ; las habitaciones secundarias con closet y 1 con patio) 02 baños completos. 01 cocina cerrada con reposteros altos y bajos. 01 lavandería incluida dentro de la cocina. Pisos de parquet recién tratado. 1er piso, no tiene rampas. Todo esta pintado en color blanco. ingreso independiente. ubicacion: La av. La Marina con Sucre. Condición 2 meses de Garantía y 1 mes de adelanto. Que tenga sustento de ingreso y no infocorp. Seguridad 24 horas. **Mantenimiento: S/. 150 soles ( incluye agua, pago al personal de seguridad, limpieza de áreas comunes)</t>
+          <t>A. C. vive en Los Condominios La Huaca San Miguel 3 HabitacionesVive en un lugar céntrico de san miguel A unos pasos de tottus, brigida silva, un lugar lleno de comercios, colegios cercanos como innova O saco olivero, farmacias cercanas. Todo lo que necesitas A tu alcance! Departamento amplio!! Octavo piso con ascensor. distribución interna de 90 M2: ingreso A una sala amplia con balcón. Y vista al jardin interno del condominio. *sala amplia con balcon que te permite una excelente ventilación. *cocina amplia con muebles bajos (cuenta con gas calida Y terma A gas) *al lado una división para lavandería. * una sala star. 3 dormitorios: - habitación principal para cama queen con baño completo privado. - segunda habitación con espacio para cama tamañano regular para cama de dos plazas. -tercera habitación con espacio para cama de plaza Y media. Un baño compartido. mantenimiento: aproximado de 160 soles (varia conforme al uso del agua) luz independiente. Adicional si necesita cochera 250 soles mas al precio de oferta. el edificio cuenta con sistema contra incendios. áreas comunes como parque interno Y sala de reuniones. Agenda tu visita al 9, , 4, 0, , 1, , 0, , 6, 0, , 1, , 5, ,</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2452,33 +2432,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S/ 2,400</t>
+          <t>S/ 2,800</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>S/ 110 Mantenimiento</t>
+          <t>S/ 280 Mantenimiento</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AV LIMA 765</t>
+          <t>Av. Julio C. Tello 1025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
+          <t>Lince, Lima</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>133 m²</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>95 m²</t>
+          <t>133 m²</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2498,7 +2478,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Departamento en Primer Piso en San MiguelAmplio departamento en Primer Piso. Sala comedor, Cocina cerrada con muebles altos y bajos para almacenamiento, Área de lavandería. Dormitorio principal con closet amplio y baño. Dormitorio secundario 1: Cuenta con espacio para closet y una terraza. Dormitorio secundario 2: Cuenta con espacio para closet y una habitacion incorporada techada como para oficina o sala de estar. Baño completo compartido. Este Condominio, es uno de los más solicitados de la zona, ya que es tranquilo. Está estrategicamente bien ubicado y tiene fácil acceso a transporte público y particular, hacia diferentes distritos de Lima y Callao, asi como a la Unniversidad Católica y upc. Se encuentra a pocas cuadras de las avenidas la Marina, Universtaria, Costanera y a unos minutos de Plaza San Miguel, Open Plaza La Marina, Plaza Vea y Mercado de Magdalena. Servicio de vigilancia 24 hrs. Mantenimiento S/ 110. - Incluye estacionamiento. El departamento también está en modalidad Venta. Precio us$ 135, 000. No tiene hipoteca</t>
+          <t>Coge Tus Maletas y Múdate a Este Amplio Depa AmobladoSi estás buscando comodidad y confort, si te gusta hacer deporte o caminatas al aire libre, si quieres ahorrar tiempo, porque tienes todo muy cerca, entonces, ¡este súper departamento amoblado es lo que estas buscando! Cuenta con una amplia sala comedor, la cocina viene con reposteros altos bajos; lava seca; cocina; refrigeradora; terma y un pequeño cuarto que puede ser utilizado como depósito ó cuarto de planchado; además tiene 3 dormitorios con vista a la calle. El principal con balcón; baño incorporado y televisor. Uno de los dormitorios secundarios también cuenta con balcón, todos los dormitorios tienen closet y cajonería completa. En el hall encontrarás un baño completo con lavamanos de mármol y mamparas de vidrio en la ducha que comparten los dormitorios y 1/2 baño de visitas. No tendrás problemas de estacionamiento ya que tiene una cochera en el sótano. Adicionalmente en el primer piso se encuentra una sala de eventos, con baño y cocina kitchenette y una linda recepción con cámaras de seguridad. ¡Llámame y agenda tu cita!</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2516,33 +2496,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S/ 1,650</t>
+          <t>S/ 2,000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(USD 412)</t>
+          <t>(USD 450)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tnte Diego Ferre 257</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>San Miguel, Lima</t>
-        </is>
-      </c>
+          <t>Pueblo Libre, Lima</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>161 m²</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2552,13 +2528,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2 baños</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>3 baños</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Hermoso Dpto de Estreno Super Céntrico Cerca a La Universidad Católica y UnmsmAgente: Harold. Cel: 979*153*063. Hermoso dpto de estreno super céntrico cerca a la Universidad Católica y unmsm. Consta de sala comedor, 3 habitaciones, 2 baños, ubicado en 4o piso sin ascensor y sin cochera. 100m2. No se paga mantenimiento. Contrato de 1 año. Se pide buen crédito y prueba de ingresos. Tnte Diego Ferre 257 San Miguel</t>
+          <t>Ministerio Marina 2000soles 3dorm 160 Mtrs Parqueton Granito CocheraMinisterio marina 2000soles 3dormitorios para king size closets en caoba cajonera. Pusos en dd, tres baños enmayolicados lujosos esoejos biselado, muy elegante edificio. Con servuxio conserjería cel. 9. 4. 5. 9. 3. 5. 5. 2. 0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2576,29 +2556,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S/ 2,000</t>
+          <t>S/ 2,250</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>S/ 290 Mantenimiento</t>
+          <t>S/ 60 Mantenimiento</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>TAQUITAHUANA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>San Miguel, Lima</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>107 m²</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>107 m²</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2611,10 +2595,14 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Se Alquila Departamento en El Distrito de San Miguel en La Av Los PatriotasContacto cel: 999*Ver datos. Se alquila departamento en el distrito de San Miguel en la Avenida Los Patriotas. ️1º piso. Cuenta con: Sala - Comedor amplia. Patio grande. 3 dormitorios con sus respectivos closets. 2 baños (dormitorio principal con baño propio) Cocina y lavanderia. ️100 m2. ️Incluye cochera. -Mantenimiento: S/ 290 (incluye vigilancia, luz del área común del edificio, mantenimiento, consumo del agua del departamento) *Precio: S/ 2000 (dos meses de garantia y un mes de adelanto) *Se solicitaran requisitos. Si quieres obtener más información, ver el departamento (previa cita): Ver datos</t>
+          <t>Alquilo Departamento en San MiguelAlquilo departamento de 107 en una casa de 4 pisos ubicada en la calle Taquitahuana cdra 01 en el distrito de San Miguel. Cuenta: - 3 dormitorios. - 2 baños. - sala comedor. - Cocina con muebles altos y bajos. - Lavanderia. - Dormitorio principal con baño y terraza. - Intercomunicador y terma. No tiene ascensor. Cochera dentro de la misma casa en primer piso techado. Condiciones 2 x 1. Cerca a la Av. Precursores, av Faucett. Muy bien ubicado. Visita, previa cita.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2632,18 +2620,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S/ 2,000</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>(USD 520)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>S/ 2,500</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>S/ 180 Mantenimiento</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Calle Santa Lucia Nº 102, Dpto 501</t>
+          <t>Jirón Libertad Nro 1542 Pueblo Libre</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2653,12 +2641,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>97 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>97 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2668,13 +2656,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2 baños</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr"/>
+          <t>3 baños</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1 estac.</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Alquilo Departamento IDContacto: narvy morales // cel: 922*435*495. Se Alquila bonito y amplio departamento, en el quinto (5to) piso, con vista a la calle. Ubicado cerca a diversos comercios, bancos, entre otros. Cuenta con: Sala - Comedor (con vista externa) Cocina - Lavandería (con puerta falsa) 03 Dormitorios con closet (el principal con vista externa) 02 Baños completos (01 en el dormitorio principal). Cuenta con intercomunicador. Pago de Mantenimiento: Aprox. 120 soles al mes. Pago de Alquiler: 01 mes de adelanto y 02 meses de garantía.</t>
+          <t>Alquiler de Bello Departamento en Pueblo Libre – 80 + 70 m2Contacto: angela gutierrez 9 9 9 9 1 9 0 0 3. Estas buscando un departamento, amplio, iluminado y acogedor? Con una ubicación estratégica? Aquí te presento! Este lindo departamento de 80 m² de área techada más una terraza en la parte superior de la misma medida, ubicado en el 6to piso de un edificio de 6 pisos en el distrito de Pueblo Libre, a pocas cuadras de importantes avenidas como Av. Brasil, Sucre y La marina, con lindas áreas verdes a su alrededor, mercado de abasto bastante variado! Muy cerca de Supermercados como Metro, Wong, Plaza San Miguel, a unos a minutos de Hospitales y las Clínicas Centenario, San Judas, Stella Maris, y San Felipe, Universidades como San Marcos, Católica, upc, cerca de colegios, iglesias, panaderías y bancos entre otros. Distribución: Departamento: - Sala – Comedor: Piso laminado, con buena circulación de aire e iluminación natural por las ventanas de vidrio, vista a calle. - Cocina: independiente, al costado de sala comedor, cuenta con muebles altos y bajos en melamina, piso de porcelanato. - Dormitorio Principal con piso de porcelanato, buena iluminación y closets. - Dos habitaciones secundarias, ubicadas a continuación de la habitación principal con piso de porcelanato y closets cada una. - Baño Completo, uno en habitación principal y otro entre las dos habitaciones con paredes y pisos de porcelanato. Terraza. - Área de lavandería: ubicada en una zona libre con su propio tendal y lavadero de loza color blanco. - Baño completo. También incluye: - Medidor de luz independiente. - Cámaras de seguridad. - Bomba de agua hidroneumática que garantiza el suministro y presión de agua. - Tanque cisterna para todo el edificio. Renta Mensual con estacionamiento: S/2, 500. Renta Mensual sin estacionamiento: S/2, 300. Condiciones de Alquiler: Un mes de adelanto y 2 meses de garantía.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2692,29 +2684,33 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S/ 2,800</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>S/ 2,470</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>(USD 650)</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>S/ 100 Mantenimiento</t>
+          <t>S/ 250 Mantenimiento</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
+          <t>Jesús María, Lima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>108 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>108 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2724,13 +2720,13 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1 baño</t>
+          <t>2 baños</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Alquilo Lindo y Amplio Departamento Duplex en San Miguel 108 mAlquilo lindo y amplio Departamento Duplex en San Miguel, semi amoblado, con vista exterior, bien iluminado, buena distribución, con pisos laminados y porcelanato matte español, en el 4to. Piso. Límites con Magdalena, zona tranquila cerca a parques, centro comerciales, mercado, a pocos minutos de Plaza San Miguel. En el primer nivel se encuentra la sala comedor, cocina abierta con muebles altos y bajos, tablero de granito, griferia vainsa, espacio abierto y moderno. Una habitación y un baño completo. En el segundo nivel se encuentran dos habitaciones, una con terraza, dos baños completos y zona de lavandería. Cuenta con aires. Edificio de 4 pisos. Departamentos por Piso: 2. Área: 108. Sala. Comedor. 3 Dormitorios: 2 dormitorios con cama. Baños completos: 3. Cocina con refrigeradora, cocina, microondas, campana extractora y cocina. Lavandería con lavaseca. Terraza. Alquiler: s/. 2, 800. 00 soles. Mantenimiento: 100 soles. Modalidad: 1 mes de adelanto y 2 de garantía. Requisitos: Documentación que sustenten ingresos. *El edificio no cuenta con ascensor.</t>
+          <t>Departamento en Alquiler en Jesus MariaAlquilo!! Lindo departamento en Jesús María. Ubicación céntrica, a un paso de la upc, Universidad del Pacifico y Real Plaza de Salaverry. Espacios bien distribuidos, 3 dormitorios de buen tamaño. Av San Felipe cdra 6 piso 11. Precio: $650. Área: 95 m2. Características: - Living comedor. - Cocina. - Balcón. - 3 dormitorios. - 2 baños. No cuenta con cochera pero en el edificio hay disponibles en alquiler. Citas fáciles!!</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2748,57 +2744,53 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S/ 2,800</t>
+          <t>S/ 2,600</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>(USD 725)</t>
+          <t>(USD 685)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>S/ 190 Mantenimiento</t>
+          <t>S/ 30 Mantenimiento</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Victor Pantoja 446</t>
+          <t>Francisco Masias Lince</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pueblo Libre, Lima</t>
+          <t>San Eugenio, Lince</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>105 m²</t>
+          <t>220 m²</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>106 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>4 dorm.</t>
+          <t>3 dorm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3 baños</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+          <t>1 baño</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Se Alquila Departamento Al Costado de Parque San Martin** agente encargado ** emma melgarejo 9. 9. 6. 2. 6. 7. 8. 2. 0. ** se alquila hermoso departamento en zona tranquila, rodeada de parques Y cerca A la caseta de serenazgo, Buena Zona tranquila, rodeada de tres parques, media cuadra de caseta de Serenazgo de Parque San Martin, Dos cuadras del Hospital Santa Rosa, Av. Bolivar, Av. Sucre y cerca al Mercado de Pueblo libre, Colegios, Panaderías Centros comerciales, y Super Markers. Departamento de 7 pisos (dos departamentos por piso) • Departamento Vista Externa en 4to piso en Pueblo Libre. • Cuenta con Ascensor. • Departamento cuenta con: • Sala / Comedor. • Cocina amplia con muebles altos y bajos. • 3 Dormitorios con walking closet. • 3 baños. • 1 cuarto de servicio. • Cuenta con cochera techada. Alquiler 2, 800 soles. Mantenimiento 190 soles aproximados. Arbitrios 50 soles mensuales</t>
+          <t>Alquiler de Amplio Departamento con 3 Habitaciones, en La Mejor Zona de LinceDescripción: Alquilo hermoso y amplio departamento ubicado en un 3er piso con vista exterior, calle Francisco Masias, distrito de Lince límite con San Isidro, frente a un hermoso parque con juegos para niños, a solo una cuadra de la Avenida Javier Prado Este, cerca a centros comerciales, mercados, colegios, y principales avenidas con acceso a todos los paraderos de buses, a pocas cuadras del centro financiero de San Isidro. Detalles adicionales: Este hermoso dpto cuenta con 120 mt2, 3 habitaciones sumamente amplias con Walk in closet, sala comedor, cocina, 2 baños completos, además cuenta con una amplia terraza en el 4to nivel donde se encuentra el área de lavandería y tendal con un baño de servicio. El dpto se encuentra semi amoblado, cuenta con camas, un bar, ropero y algunos otros muebles adicionales. Mayor información al 9-9-5-6-4-7-3-6-4 Nelly Uribe agente inmobiliario de Molinmuebles</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2820,25 +2812,29 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>S/ 200 Mantenimiento</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Av. Los Insurgentes 556</t>
+          <t>Calle PABLO BERMUDEZ S/N</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>San Miguel, Lima</t>
+          <t>Jesús María, Lima</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>122 m²</t>
+          <t>96 m²</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>122 m²</t>
+          <t>96 m²</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2848,13 +2844,13 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1 baño</t>
+          <t>2 baños</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Alquilo Amplio Dpto en Primer Piso San Miguel IDContacto: olinda barrueto // cel: Ver datos. dpto remodelado con puertas Y maparas anti ruido. 3 dormitorios (2 con closet Y espejos) 1 baño completo (cuenta con rapiducha Y ventilador) amplia sala comedor con piso de porcelanato Y mampara. cocina con reposteros nuevos cuyas puertas abren Y cierran suavemente. espacio para comedor de diario. area de lavanderia con instalaciones para lavadora. 1 patio al fondo del dpto con amplias mamparas antiruido. condiciones: 2 meses de garantia Y 1 mes de adelanto. no mascotas. demostrar ingresos. impecable en el sistema financiero</t>
+          <t>Amplio Departamento en Jesús MaríaExcelente oportunidad de inversión! Se alquila solo para oficina. Departamento sólo para oficina en óptimas condiciones, con vista exterior y buena distribución. La propiedad está una zona céntrica ya que está cerca de supermercados, empresas, bancos, etc. Características: - Amplia sala comedor con grandes ventanales vista a la ciudad. -Cocina cerrada. -Una zona de lavandería. -03 Oficinas: 02 Oficinas son amplias y tienen ventana. 01 Oficina pequeño. -02 Baños. -Área de servicio completo. -Doble acceso por sala y cocina. Ubicado en el piso 8, el edificio tiene ascensor.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2872,33 +2868,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S/ 2,800</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>S/ 280 Mantenimiento</t>
-        </is>
-      </c>
+          <t>S/ 2,200</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>(USD 572)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Av. Julio C. Tello 1025</t>
+          <t>PENA NEGRA 166</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Lince, Lima</t>
+          <t>San Miguel, Lima</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>133 m²</t>
+          <t>94 m²</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>133 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2911,14 +2907,10 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Coge Tus Maletas y Múdate a Este Amplio Depa AmobladoSi estás buscando comodidad y confort, si te gusta hacer deporte o caminatas al aire libre, si quieres ahorrar tiempo, porque tienes todo muy cerca, entonces, ¡este súper departamento amoblado es lo que estas buscando! Cuenta con una amplia sala comedor, la cocina viene con reposteros altos bajos; lava seca; cocina; refrigeradora; terma y un pequeño cuarto que puede ser utilizado como depósito ó cuarto de planchado; además tiene 3 dormitorios con vista a la calle. El principal con balcón; baño incorporado y televisor. Uno de los dormitorios secundarios también cuenta con balcón, todos los dormitorios tienen closet y cajonería completa. En el hall encontrarás un baño completo con lavamanos de mármol y mamparas de vidrio en la ducha que comparten los dormitorios y 1/2 baño de visitas. No tendrás problemas de estacionamiento ya que tiene una cochera en el sótano. Adicionalmente en el primer piso se encuentra una sala de eventos, con baño y cocina kitchenette y una linda recepción con cámaras de seguridad. ¡Llámame y agenda tu cita!</t>
+          <t>Se Alquila Departamento en San Miguel"¡Vive la vida en grande en San Miguel Lima! Tenemos una propiedad en alquiler que es un sueño hecho realidad. Con 85 m2 de espacio y 3 habitaciones, encontrarás todo lo que necesitas para una vida cómoda y acogedora. ¡Y lo mejor de todo es que tus amados compañeros de cuatro patas son bienvenidos! La propiedad cuenta con: 3 habitaciones amplias y cómodas. 2 Baños. Area de lavanderia. Cocina equipada y moderna. Baño privado. Áreas comunes para disfrutar con amigos y familiares. No pierdas la oportunidad de vivir en una ubicación privilegiada con acceso a todas las comodidades que necesitas. ¡Contáctanos hoy mismo para hacer una cita y ver la propiedad en persona! ¡Prepárate para enamorarte de tu nuevo hogar! "</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2936,33 +2928,29 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S/ 3,000</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>(USD 789)</t>
-        </is>
-      </c>
+          <t>S/ 2,300</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Av. Cuba 486</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jesús María, Lima</t>
+          <t>Mariscal Antonio Jose De Sucre, Pueblo Libre</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>110 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2975,14 +2963,10 @@
           <t>2 baños</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>1 estac.</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Se Alquila Departamento de Estreno - Primer Piso IDContacto: sharon caceres // cel: 982*201*442. at: 110 M2. Ubicación: Edificio Cuba Connect - Avenida Cuba 486 - Jesús María. Descripción: - Sala / Comedor. - Terraza. - Cocina cerrada. - Lavandería. - Dormitorio principal con baño incorporado. - Dos habitaciones secundarias. - Baño de visitas completo. El edificio cuenta con: - Tres zonas de parrilla. - sum. - Hall / Counter de ingreso. - Sistema contra incendio. El alquiler incluye un estacionamiento 03. Contáctanos y conoce tu nuevo hogar!</t>
+          <t>Pueblo Libre, Av Sucre, Alquilo Dpto. 1er. Piso 3, Dormt.Alquilo departamento de 100 mt2, 1er piso, agua, luz y desagüe independizados, 3 dormitorios con closets, en Pueblo libre, el departamento esta ubicado dentro de una quinta en la Av. Sucre, sala y comedor amplia, cocina con muebles altos y bajos, 3 dormitorios amplios, 2 baños, lavandería, tiene 2 puertas de entrada, jardinera exterior, patio interior, techo alto muy buena iluminación, el departamento esta muy bien ubicado, cerca a centros comerciales, avenidas, colegios, universidades, ( A 3 cuadras de la Av Brasil, a 2 cuadras de la Av. La Marina, a 2 cuadras de la Av La mar). Direccion ; Avenida Antonio de Sucre 879 interior I, Pueblo Libre. Previa cita: Marco Samplini. Ver datos / Ver datos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
